--- a/Wastes/Month 6/month_6_wastes.xlsx
+++ b/Wastes/Month 6/month_6_wastes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lunches" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="37">
   <si>
     <t>Week</t>
   </si>
@@ -95,24 +95,6 @@
     <t>Total for 4 weeks (without debts)</t>
   </si>
   <si>
-    <t>01.06-04.06 2017</t>
-  </si>
-  <si>
-    <t>05.06-11.06 2017</t>
-  </si>
-  <si>
-    <t>12.06-18.06 2017</t>
-  </si>
-  <si>
-    <t>19.06-25.06 2017</t>
-  </si>
-  <si>
-    <t>26.06-30.06 2017</t>
-  </si>
-  <si>
-    <t>01.06-30.06 2017</t>
-  </si>
-  <si>
     <t>03.07-09.07 2017</t>
   </si>
   <si>
@@ -125,9 +107,6 @@
     <t>24.07-30.07 2017</t>
   </si>
   <si>
-    <t>(1p - печать)</t>
-  </si>
-  <si>
     <t>8p (Natasha)</t>
   </si>
   <si>
@@ -137,13 +116,25 @@
     <t>35 (Egor Rozum)</t>
   </si>
   <si>
-    <t>8p (Natasha) + 35 (Egor Rozum)</t>
-  </si>
-  <si>
     <t>16.4 (Kirill)</t>
   </si>
   <si>
     <t>11p (Olya) + 35p (Egor Rozum) + 16.4 (Kirill)</t>
+  </si>
+  <si>
+    <t>03.07-31.07 2017</t>
+  </si>
+  <si>
+    <t>31.07 2017</t>
+  </si>
+  <si>
+    <t>(1p - печать, 5p - дал девушке на маршрутку)</t>
+  </si>
+  <si>
+    <t>5p (Kirill)</t>
+  </si>
+  <si>
+    <t>8p (Natasha) + 35 (Egor Rozum) + 5(Kirill)</t>
   </si>
 </sst>
 </file>
@@ -464,7 +455,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +496,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -520,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -530,12 +521,12 @@
       </c>
       <c r="I2">
         <f xml:space="preserve"> B2+C2+D2+E2+F2+G2+H2</f>
-        <v>7.7</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -565,7 +556,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -595,7 +586,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -624,8 +615,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
+      <c r="A6" t="s">
+        <v>33</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -659,7 +650,7 @@
       </c>
       <c r="I7">
         <f xml:space="preserve"> $I$2+$I$3+$I$4+$I$5+$I$6</f>
-        <v>7.7</v>
+        <v>13.7</v>
       </c>
     </row>
   </sheetData>
@@ -671,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,23 +713,23 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
         <f xml:space="preserve"> B2+C2+D2+E2+F2+G2+H2</f>
-        <v>0</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -833,7 +824,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -867,7 +858,7 @@
       </c>
       <c r="I7">
         <f xml:space="preserve"> $I$2+$I$3+$I$4+$I$5+$I$6</f>
-        <v>0</v>
+        <v>33.4</v>
       </c>
     </row>
   </sheetData>
@@ -879,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,13 +930,13 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J6">
         <v>62.4</v>
@@ -968,7 +959,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1022,16 +1013,19 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
         <v>36</v>
       </c>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
       <c r="J17">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1051,7 +1045,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1060,7 +1054,7 @@
       </c>
       <c r="J22">
         <f>$J$17+$J$18+$J$19+$J$20+$J$21</f>
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1083,7 +1077,7 @@
       </c>
       <c r="C25">
         <f xml:space="preserve"> J22</f>
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1092,7 +1086,7 @@
       </c>
       <c r="C26">
         <f xml:space="preserve"> C24-C25</f>
-        <v>19.399999999999999</v>
+        <v>14.399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1105,7 +1099,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1261,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1314,7 +1308,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,17 +1368,17 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
         <f xml:space="preserve"> B2+C2+D2+E2+F2+G2+H2</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1479,7 +1473,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1513,7 +1507,7 @@
       </c>
       <c r="I7">
         <f xml:space="preserve"> $I$2+$I$3+$I$4+$I$5+$I$6</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1526,7 +1520,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,7 +1530,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1545,7 +1539,7 @@
       </c>
       <c r="B2">
         <f>Lunches!I7</f>
-        <v>7.7</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1554,7 +1548,7 @@
       </c>
       <c r="B3">
         <f xml:space="preserve"> Shops!I7</f>
-        <v>0</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1563,7 +1557,7 @@
       </c>
       <c r="B4">
         <f xml:space="preserve"> Debts!C26</f>
-        <v>19.399999999999999</v>
+        <v>14.399999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1581,7 +1575,7 @@
       </c>
       <c r="B6">
         <f xml:space="preserve"> Other!I7</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1590,7 +1584,7 @@
       </c>
       <c r="B7">
         <f xml:space="preserve"> B2+B3+B5+B6</f>
-        <v>8.6999999999999993</v>
+        <v>53.099999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/Wastes/Month 6/month_6_wastes.xlsx
+++ b/Wastes/Month 6/month_6_wastes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Lunches" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="40">
   <si>
     <t>Week</t>
   </si>
@@ -128,13 +128,22 @@
     <t>31.07 2017</t>
   </si>
   <si>
-    <t>(1p - печать, 5p - дал девушке на маршрутку)</t>
-  </si>
-  <si>
     <t>5p (Kirill)</t>
   </si>
   <si>
     <t>8p (Natasha) + 35 (Egor Rozum) + 5(Kirill)</t>
+  </si>
+  <si>
+    <t>11 (Olya) + 21 (Kirill)</t>
+  </si>
+  <si>
+    <t>10 (Kirill)</t>
+  </si>
+  <si>
+    <t>(10p - интернет, 26p - проездной)</t>
+  </si>
+  <si>
+    <t>(1p - печать, 5p - дал девушке на маршрутку, 11p - билет на поезд)</t>
   </si>
 </sst>
 </file>
@@ -455,7 +464,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +538,7 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -551,7 +560,7 @@
       </c>
       <c r="I3">
         <f xml:space="preserve"> B3+C3+D3+E3+F3+G3+H3</f>
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -650,7 +659,7 @@
       </c>
       <c r="I7">
         <f xml:space="preserve"> $I$2+$I$3+$I$4+$I$5+$I$6</f>
-        <v>13.7</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +672,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -759,7 +768,7 @@
       </c>
       <c r="I3">
         <f xml:space="preserve"> B3+C3+D3+E3+F3+G3+H3</f>
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -858,7 +867,7 @@
       </c>
       <c r="I7">
         <f xml:space="preserve"> $I$2+$I$3+$I$4+$I$5+$I$6</f>
-        <v>33.4</v>
+        <v>35.1</v>
       </c>
     </row>
   </sheetData>
@@ -870,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,6 +955,15 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -968,7 +986,7 @@
       </c>
       <c r="J11">
         <f>$J$6+$J$7+$J$8+$J$9+$J$10</f>
-        <v>62.4</v>
+        <v>72.400000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1019,10 +1037,10 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
         <v>35</v>
-      </c>
-      <c r="I17" t="s">
-        <v>36</v>
       </c>
       <c r="J17">
         <v>48</v>
@@ -1032,6 +1050,15 @@
       <c r="A18" t="s">
         <v>24</v>
       </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1054,7 +1081,7 @@
       </c>
       <c r="J22">
         <f>$J$17+$J$18+$J$19+$J$20+$J$21</f>
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1068,7 +1095,7 @@
       </c>
       <c r="C24">
         <f>J11</f>
-        <v>62.4</v>
+        <v>72.400000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1077,7 +1104,7 @@
       </c>
       <c r="C25">
         <f xml:space="preserve"> J22</f>
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1086,7 +1113,7 @@
       </c>
       <c r="C26">
         <f xml:space="preserve"> C24-C25</f>
-        <v>14.399999999999999</v>
+        <v>-8.5999999999999943</v>
       </c>
     </row>
   </sheetData>
@@ -1307,7 +1334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -1316,7 +1343,7 @@
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="55.140625" customWidth="1"/>
+    <col min="10" max="10" width="64.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1356,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1375,10 +1402,10 @@
       </c>
       <c r="I2">
         <f xml:space="preserve"> B2+C2+D2+E2+F2+G2+H2</f>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1386,13 +1413,13 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1408,7 +1435,10 @@
       </c>
       <c r="I3">
         <f xml:space="preserve"> B3+C3+D3+E3+F3+G3+H3</f>
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1507,7 +1537,7 @@
       </c>
       <c r="I7">
         <f xml:space="preserve"> $I$2+$I$3+$I$4+$I$5+$I$6</f>
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1539,7 +1569,7 @@
       </c>
       <c r="B2">
         <f>Lunches!I7</f>
-        <v>13.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1548,7 +1578,7 @@
       </c>
       <c r="B3">
         <f xml:space="preserve"> Shops!I7</f>
-        <v>33.4</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1557,7 +1587,7 @@
       </c>
       <c r="B4">
         <f xml:space="preserve"> Debts!C26</f>
-        <v>14.399999999999999</v>
+        <v>-8.5999999999999943</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1575,7 +1605,7 @@
       </c>
       <c r="B6">
         <f xml:space="preserve"> Other!I7</f>
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1584,7 +1614,7 @@
       </c>
       <c r="B7">
         <f xml:space="preserve"> B2+B3+B5+B6</f>
-        <v>53.099999999999994</v>
+        <v>103.1</v>
       </c>
     </row>
   </sheetData>

--- a/Wastes/Month 6/month_6_wastes.xlsx
+++ b/Wastes/Month 6/month_6_wastes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lunches" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
   <si>
     <t>Week</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>(1p - печать, 5p - дал девушке на маршрутку, 11p - билет на поезд)</t>
+  </si>
+  <si>
+    <t>9.55 (Kirill)</t>
+  </si>
+  <si>
+    <t>19.55 (Kirill)</t>
+  </si>
+  <si>
+    <t>11 (Olya) + 30.55 (Kirill)</t>
   </si>
 </sst>
 </file>
@@ -672,7 +681,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +761,7 @@
         <v>1.7</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -768,7 +777,7 @@
       </c>
       <c r="I3">
         <f xml:space="preserve"> B3+C3+D3+E3+F3+G3+H3</f>
-        <v>1.7</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -867,7 +876,7 @@
       </c>
       <c r="I7">
         <f xml:space="preserve"> $I$2+$I$3+$I$4+$I$5+$I$6</f>
-        <v>35.1</v>
+        <v>54.7</v>
       </c>
     </row>
   </sheetData>
@@ -879,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,11 +967,14 @@
       <c r="B7" t="s">
         <v>37</v>
       </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>19.55</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -986,7 +998,7 @@
       </c>
       <c r="J11">
         <f>$J$6+$J$7+$J$8+$J$9+$J$10</f>
-        <v>72.400000000000006</v>
+        <v>81.95</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1053,11 +1065,14 @@
       <c r="C18" t="s">
         <v>36</v>
       </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J18">
-        <v>33</v>
+        <v>42.55</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1081,7 +1096,7 @@
       </c>
       <c r="J22">
         <f>$J$17+$J$18+$J$19+$J$20+$J$21</f>
-        <v>81</v>
+        <v>90.55</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1095,7 +1110,7 @@
       </c>
       <c r="C24">
         <f>J11</f>
-        <v>72.400000000000006</v>
+        <v>81.95</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1104,7 +1119,7 @@
       </c>
       <c r="C25">
         <f xml:space="preserve"> J22</f>
-        <v>81</v>
+        <v>90.55</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1334,7 +1349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -1578,7 +1593,7 @@
       </c>
       <c r="B3">
         <f xml:space="preserve"> Shops!I7</f>
-        <v>35.1</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1614,7 +1629,7 @@
       </c>
       <c r="B7">
         <f xml:space="preserve"> B2+B3+B5+B6</f>
-        <v>103.1</v>
+        <v>122.7</v>
       </c>
     </row>
   </sheetData>

--- a/Wastes/Month 6/month_6_wastes.xlsx
+++ b/Wastes/Month 6/month_6_wastes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lunches" sheetId="1" r:id="rId1"/>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,14 +770,14 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I3">
         <f xml:space="preserve"> B3+C3+D3+E3+F3+G3+H3</f>
-        <v>21.3</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -785,7 +785,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -807,7 +807,7 @@
       </c>
       <c r="I4">
         <f xml:space="preserve"> B4+C4+D4+E4+F4+G4+H4</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -876,7 +876,7 @@
       </c>
       <c r="I7">
         <f xml:space="preserve"> $I$2+$I$3+$I$4+$I$5+$I$6</f>
-        <v>54.7</v>
+        <v>64.8</v>
       </c>
     </row>
   </sheetData>
@@ -888,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B3">
         <f xml:space="preserve"> Shops!I7</f>
-        <v>54.7</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B7">
         <f xml:space="preserve"> B2+B3+B5+B6</f>
-        <v>122.7</v>
+        <v>132.80000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Wastes/Month 6/month_6_wastes.xlsx
+++ b/Wastes/Month 6/month_6_wastes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Lunches" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,6 @@
     <t>10 (Kirill)</t>
   </si>
   <si>
-    <t>(10p - интернет, 26p - проездной)</t>
-  </si>
-  <si>
     <t>(1p - печать, 5p - дал девушке на маршрутку, 11p - билет на поезд)</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>11 (Olya) + 30.55 (Kirill)</t>
+  </si>
+  <si>
+    <t>(10p - интернет, 26p - проездной, 30 - билеты)</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -889,7 +889,7 @@
   <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,10 +968,10 @@
         <v>37</v>
       </c>
       <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
         <v>40</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
       </c>
       <c r="J7">
         <v>19.55</v>
@@ -1066,10 +1066,10 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J18">
         <v>42.55</v>
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="I2">
         <f xml:space="preserve"> B2+C2+D2+E2+F2+G2+H2</f>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I7">
         <f xml:space="preserve"> $I$2+$I$3+$I$4+$I$5+$I$6</f>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +1350,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,7 +1420,7 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1450,10 +1450,10 @@
       </c>
       <c r="I3">
         <f xml:space="preserve"> B3+C3+D3+E3+F3+G3+H3</f>
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="I7">
         <f xml:space="preserve"> $I$2+$I$3+$I$4+$I$5+$I$6</f>
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B5">
         <f xml:space="preserve"> 'Public places'!I7</f>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B6">
         <f xml:space="preserve"> Other!I7</f>
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B7">
         <f xml:space="preserve"> B2+B3+B5+B6</f>
-        <v>132.80000000000001</v>
+        <v>197.8</v>
       </c>
     </row>
   </sheetData>
